--- a/branches/Develop_Organization-Resource---FIG-12/StructureDefinition-hiv-organization.xlsx
+++ b/branches/Develop_Organization-Resource---FIG-12/StructureDefinition-hiv-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T07:05:31+00:00</t>
+    <t>2023-02-01T07:10:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Develop_Organization-Resource---FIG-12/StructureDefinition-hiv-organization.xlsx
+++ b/branches/Develop_Organization-Resource---FIG-12/StructureDefinition-hiv-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T07:10:01+00:00</t>
+    <t>2023-02-01T09:51:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Develop_Organization-Resource---FIG-12/StructureDefinition-hiv-organization.xlsx
+++ b/branches/Develop_Organization-Resource---FIG-12/StructureDefinition-hiv-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T09:51:04+00:00</t>
+    <t>2023-02-01T09:51:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Develop_Organization-Resource---FIG-12/StructureDefinition-hiv-organization.xlsx
+++ b/branches/Develop_Organization-Resource---FIG-12/StructureDefinition-hiv-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T09:51:40+00:00</t>
+    <t>2023-02-01T14:55:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>86</v>

--- a/branches/Develop_Organization-Resource---FIG-12/StructureDefinition-hiv-organization.xlsx
+++ b/branches/Develop_Organization-Resource---FIG-12/StructureDefinition-hiv-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T14:55:43+00:00</t>
+    <t>2023-02-01T15:19:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Develop_Organization-Resource---FIG-12/StructureDefinition-hiv-organization.xlsx
+++ b/branches/Develop_Organization-Resource---FIG-12/StructureDefinition-hiv-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="434">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T15:19:22+00:00</t>
+    <t>2023-02-02T08:17:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -474,6 +474,16 @@
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:system}
+</t>
+  </si>
+  <si>
+    <t>Slice based on the type of identifier</t>
+  </si>
+  <si>
+    <t>openAtEnd</t>
+  </si>
+  <si>
     <t xml:space="preserve">org-1
 </t>
   </si>
@@ -490,6 +500,251 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
+    <t>Organization.identifier:HTS</t>
+  </si>
+  <si>
+    <t>HTS</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.use</t>
+  </si>
+  <si>
+    <t>Organization.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.type</t>
+  </si>
+  <si>
+    <t>Organization.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.system</t>
+  </si>
+  <si>
+    <t>Organization.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/identifier/hiv-organization</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>./IdentifierType</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.value</t>
+  </si>
+  <si>
+    <t>Organization.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>./Value</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.period</t>
+  </si>
+  <si>
+    <t>Organization.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.assigner</t>
+  </si>
+  <si>
+    <t>Organization.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>./IdentifierIssuingAuthority</t>
+  </si>
+  <si>
     <t>Organization.active</t>
   </si>
   <si>
@@ -526,10 +781,6 @@
   </si>
   <si>
     <t>Organization.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Kind of organization</t>
@@ -561,17 +812,10 @@
     <t>.code</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>FiveWs.class</t>
   </si>
   <si>
     <t>Organization.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Name used for the organization</t>
@@ -686,34 +930,9 @@
     <t>Organization.address.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Organization.address.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>Organization.address.use</t>
   </si>
   <si>
@@ -730,9 +949,6 @@
   </si>
   <si>
     <t>home</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>The use of an address.</t>
@@ -965,10 +1181,6 @@
   </si>
   <si>
     <t>Organization.address.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
   </si>
   <si>
     <t>Time period when address was/is in use</t>
@@ -995,14 +1207,7 @@
     <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
   </si>
   <si>
-    <t>./StartDate and ./EndDate</t>
-  </si>
-  <si>
     <t>Organization.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
   </si>
   <si>
     <t>The organization of which this organization forms a part</t>
@@ -1072,9 +1277,6 @@
   </si>
   <si>
     <t>Need to distinguish between multiple contact persons.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>The purpose for which you would contact a contact party.</t>
@@ -1462,7 +1664,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN39"/>
+  <dimension ref="A1:AN48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1495,8 +1697,8 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="54.10546875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.51171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.6484375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1507,7 +1709,7 @@
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="107.3984375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="50.96875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="218.1953125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2733,16 +2935,16 @@
         <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>143</v>
@@ -2754,38 +2956,40 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>86</v>
@@ -2794,32 +2998,28 @@
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q12" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
         <v>77</v>
       </c>
@@ -2863,39 +3063,39 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2906,7 +3106,7 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
@@ -2915,23 +3115,19 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -2955,13 +3151,13 @@
         <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>77</v>
@@ -2979,50 +3175,50 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AG13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="AM13" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
@@ -3031,23 +3227,21 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3083,40 +3277,40 @@
         <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3124,10 +3318,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3138,31 +3332,31 @@
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3187,13 +3381,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -3211,13 +3405,13 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>77</v>
@@ -3226,10 +3420,10 @@
         <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3240,10 +3434,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3254,7 +3448,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>77</v>
@@ -3263,22 +3457,22 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3303,13 +3497,13 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -3327,28 +3521,28 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3356,10 +3550,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3379,35 +3573,35 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>203</v>
+        <v>100</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>77</v>
@@ -3443,28 +3637,28 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>209</v>
+        <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3472,10 +3666,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3483,7 +3677,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>86</v>
@@ -3495,18 +3689,20 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -3519,7 +3715,7 @@
         <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>77</v>
@@ -3555,7 +3751,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3567,16 +3763,16 @@
         <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3587,18 +3783,18 @@
         <v>217</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -3607,20 +3803,18 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>132</v>
+        <v>219</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>133</v>
+        <v>220</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -3657,16 +3851,16 @@
         <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>222</v>
@@ -3675,22 +3869,22 @@
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3698,10 +3892,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3718,26 +3912,24 @@
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>106</v>
+        <v>228</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -3749,7 +3941,7 @@
         <v>77</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="U20" t="s" s="2">
         <v>77</v>
@@ -3761,13 +3953,13 @@
         <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>77</v>
@@ -3834,28 +4026,32 @@
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>106</v>
+        <v>237</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="R21" t="s" s="2">
         <v>77</v>
       </c>
@@ -3863,7 +4059,7 @@
         <v>77</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>77</v>
@@ -3875,13 +4071,13 @@
         <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>77</v>
@@ -3899,7 +4095,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3914,24 +4110,24 @@
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AL21" t="s" s="2">
-        <v>234</v>
-      </c>
       <c r="AM21" t="s" s="2">
-        <v>77</v>
+        <v>245</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>77</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3942,7 +4138,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -3954,19 +4150,19 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -3979,7 +4175,7 @@
         <v>77</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>77</v>
@@ -3991,13 +4187,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
+        <v>252</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -4015,13 +4211,13 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
@@ -4030,24 +4226,24 @@
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>77</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4055,10 +4251,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -4070,16 +4266,20 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4091,7 +4291,7 @@
         <v>77</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>257</v>
+        <v>77</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>77</v>
@@ -4133,22 +4333,22 @@
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4156,21 +4356,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -4179,19 +4379,23 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4203,49 +4407,49 @@
         <v>77</v>
       </c>
       <c r="T24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="U24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>267</v>
-      </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
@@ -4254,13 +4458,13 @@
         <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>268</v>
+        <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4275,14 +4479,14 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4291,10 +4495,10 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>178</v>
+        <v>272</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>273</v>
@@ -4305,7 +4509,9 @@
       <c r="N25" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="O25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4317,7 +4523,7 @@
         <v>77</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>77</v>
@@ -4353,28 +4559,28 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI25" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AG25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AJ25" t="s" s="2">
-        <v>98</v>
+        <v>278</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4382,14 +4588,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4405,19 +4611,23 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>178</v>
+        <v>283</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4465,28 +4675,28 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>98</v>
+        <v>289</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4494,14 +4704,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>289</v>
+        <v>77</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4517,16 +4727,16 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>290</v>
+        <v>161</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>291</v>
+        <v>162</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4541,7 +4751,7 @@
         <v>77</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>292</v>
+        <v>77</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>77</v>
@@ -4577,7 +4787,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>293</v>
+        <v>163</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4589,16 +4799,16 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>295</v>
+        <v>164</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4606,21 +4816,21 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4629,19 +4839,19 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>298</v>
+        <v>133</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>299</v>
+        <v>167</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>300</v>
+        <v>135</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4679,40 +4889,40 @@
         <v>77</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>301</v>
+        <v>171</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>303</v>
+        <v>164</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>304</v>
+        <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4720,10 +4930,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4740,23 +4950,25 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>306</v>
+        <v>106</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O29" t="s" s="2">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4769,7 +4981,7 @@
         <v>77</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>77</v>
@@ -4781,13 +4993,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4805,7 +5017,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4820,13 +5032,13 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -4834,10 +5046,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4860,18 +5072,18 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>316</v>
+        <v>106</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
@@ -4883,7 +5095,7 @@
         <v>77</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>77</v>
@@ -4895,13 +5107,13 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>77</v>
+        <v>313</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>77</v>
@@ -4919,7 +5131,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4934,13 +5146,13 @@
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>160</v>
+        <v>315</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -4948,10 +5160,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4962,7 +5174,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -4971,22 +5183,22 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>322</v>
+        <v>160</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -4999,7 +5211,7 @@
         <v>77</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>77</v>
@@ -5035,13 +5247,13 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
@@ -5050,10 +5262,10 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>77</v>
+        <v>323</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -5064,10 +5276,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5078,7 +5290,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5087,16 +5299,16 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>214</v>
+        <v>326</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>215</v>
+        <v>327</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5111,7 +5323,7 @@
         <v>77</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>77</v>
@@ -5147,28 +5359,28 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>216</v>
+        <v>329</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>330</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>175</v>
+        <v>331</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>332</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5176,21 +5388,21 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>131</v>
+        <v>334</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5199,20 +5411,18 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>133</v>
+        <v>335</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5225,7 +5435,7 @@
         <v>77</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>77</v>
+        <v>337</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>77</v>
@@ -5261,28 +5471,28 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>222</v>
+        <v>338</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>77</v>
+        <v>339</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>175</v>
+        <v>340</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>77</v>
+        <v>341</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5290,46 +5500,44 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5341,7 +5549,7 @@
         <v>77</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>77</v>
@@ -5377,25 +5585,25 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>129</v>
+        <v>350</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5406,18 +5614,18 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>86</v>
@@ -5429,21 +5637,19 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>338</v>
-      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5467,13 +5673,13 @@
         <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>339</v>
+        <v>77</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>340</v>
+        <v>77</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>341</v>
+        <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>77</v>
@@ -5491,7 +5697,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5506,13 +5712,13 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>77</v>
+        <v>356</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5520,14 +5726,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>77</v>
+        <v>360</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5543,21 +5749,19 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>344</v>
+        <v>160</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>347</v>
-      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5569,7 +5773,7 @@
         <v>77</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>77</v>
@@ -5605,7 +5809,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5620,13 +5824,13 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>77</v>
+        <v>367</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5634,10 +5838,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5645,10 +5849,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -5657,21 +5861,21 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
@@ -5719,13 +5923,13 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
@@ -5734,13 +5938,13 @@
         <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>375</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -5748,10 +5952,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5771,20 +5975,20 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5797,7 +6001,7 @@
         <v>77</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>77</v>
+        <v>380</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>77</v>
@@ -5833,7 +6037,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5848,13 +6052,13 @@
         <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -5862,10 +6066,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5876,7 +6080,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -5885,20 +6089,20 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>363</v>
+        <v>228</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -5947,13 +6151,13 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>77</v>
@@ -5962,15 +6166,1043 @@
         <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>175</v>
+        <v>388</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AN39" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="P40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="P44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="P45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="P46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="P47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/branches/Develop_Organization-Resource---FIG-12/StructureDefinition-hiv-organization.xlsx
+++ b/branches/Develop_Organization-Resource---FIG-12/StructureDefinition-hiv-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T08:17:06+00:00</t>
+    <t>2023-02-02T08:19:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
